--- a/10/3/Total general y categorías 2003 a 2021 - Trimestral.xlsx
+++ b/10/3/Total general y categorías 2003 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>Serie</t>
   </si>
@@ -248,6 +248,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -605,7 +608,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G72"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2267,6 +2270,29 @@
         <v>52.6</v>
       </c>
     </row>
+    <row r="73" spans="1:7">
+      <c r="A73" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73">
+        <v>60.91</v>
+      </c>
+      <c r="C73">
+        <v>50.44</v>
+      </c>
+      <c r="D73">
+        <v>62.05</v>
+      </c>
+      <c r="E73">
+        <v>61.7</v>
+      </c>
+      <c r="F73">
+        <v>59.56</v>
+      </c>
+      <c r="G73">
+        <v>59.06</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
